--- a/participantes.xlsx
+++ b/participantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negoc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\Documents\Dev\RuletaSantuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{32D55631-C292-43A8-A874-D8B677FE4262}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{74008F52-A1A6-45AE-84EE-D723CA1845C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECA8A9-3486-42D4-853D-485C06098B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB4BB42C-D5A2-4794-9D7B-82DAE6D95630}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="996">
   <si>
     <t>CENTRO POBLADO</t>
   </si>
@@ -3007,6 +3010,12 @@
   </si>
   <si>
     <t>IRMA GUETICUE</t>
+  </si>
+  <si>
+    <t>ALONSO PEREZ ZUÑIGA</t>
+  </si>
+  <si>
+    <t>VEREDA LA RISARALDA</t>
   </si>
 </sst>
 </file>
@@ -3058,15 +3067,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3089,79 +3104,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3172,22 +3119,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3197,13 +3128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -3214,19 +3139,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3235,6 +3161,489 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3369,489 +3778,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4373,9 +4299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4413,7 +4339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4519,7 +4445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4661,7 +4587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4669,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D07E61-25A1-49C5-A558-EF3152591244}">
-  <dimension ref="A1:D850"/>
+  <dimension ref="A1:D851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A828" workbookViewId="0">
-      <selection activeCell="B850" sqref="B850"/>
+    <sheetView tabSelected="1" topLeftCell="A827" workbookViewId="0">
+      <selection activeCell="A851" sqref="A851:D851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4684,16 +4610,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="15" t="s">
         <v>989</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="15" t="s">
         <v>990</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="15" t="s">
         <v>992</v>
       </c>
     </row>
@@ -4705,7 +4631,7 @@
         <v>83249832</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4717,7 +4643,7 @@
         <v>1030638879</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4729,7 +4655,7 @@
         <v>5830261</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4741,7 +4667,7 @@
         <v>4896749</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4753,7 +4679,7 @@
         <v>83250044</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4765,7 +4691,7 @@
         <v>17495158</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4777,7 +4703,7 @@
         <v>26473414</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4789,7 +4715,7 @@
         <v>83249725</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4801,7 +4727,7 @@
         <v>83250094</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4813,7 +4739,7 @@
         <v>83250271</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4825,7 +4751,7 @@
         <v>4897324</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4837,7 +4763,7 @@
         <v>83250185</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4849,7 +4775,7 @@
         <v>75145607</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4861,7 +4787,7 @@
         <v>12273586</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4873,7 +4799,7 @@
         <v>83250123</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4885,7 +4811,7 @@
         <v>79288254</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4897,7 +4823,7 @@
         <v>4896962</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4909,7 +4835,7 @@
         <v>83250091</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4921,7 +4847,7 @@
         <v>83253978</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4933,7 +4859,7 @@
         <v>1004473175</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4945,7 +4871,7 @@
         <v>1084577274</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4957,7 +4883,7 @@
         <v>1084576485</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4969,7 +4895,7 @@
         <v>83250086</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4981,7 +4907,7 @@
         <v>83250220</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4993,7 +4919,7 @@
         <v>80755766</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5005,7 +4931,7 @@
         <v>76007181</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5017,7 +4943,7 @@
         <v>4897475</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5029,7 +4955,7 @@
         <v>1084577151</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5041,7 +4967,7 @@
         <v>4897482</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5053,7 +4979,7 @@
         <v>1106898336</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5065,7 +4991,7 @@
         <v>83249756</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5077,7 +5003,7 @@
         <v>83250161</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5089,7 +5015,7 @@
         <v>76007826</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5101,7 +5027,7 @@
         <v>4897319</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5113,7 +5039,7 @@
         <v>4915780</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5125,7 +5051,7 @@
         <v>2426425</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5137,7 +5063,7 @@
         <v>1084577574</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5149,7 +5075,7 @@
         <v>1084578167</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5161,7 +5087,7 @@
         <v>12278849</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5173,7 +5099,7 @@
         <v>83249811</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5185,7 +5111,7 @@
         <v>1084576588</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5197,7 +5123,7 @@
         <v>83250102</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5209,7 +5135,7 @@
         <v>12282953</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5221,7 +5147,7 @@
         <v>1084576911</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5233,7 +5159,7 @@
         <v>83253729</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5245,7 +5171,7 @@
         <v>1084577464</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5257,7 +5183,7 @@
         <v>76007987</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5269,7 +5195,7 @@
         <v>83250269</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5281,7 +5207,7 @@
         <v>4726263</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5293,7 +5219,7 @@
         <v>7713528</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5305,7 +5231,7 @@
         <v>83249911</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5317,7 +5243,7 @@
         <v>1084577028</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5329,7 +5255,7 @@
         <v>83250309</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5341,7 +5267,7 @@
         <v>1110520163</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5353,7 +5279,7 @@
         <v>1812941</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5365,7 +5291,7 @@
         <v>4897474</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5377,7 +5303,7 @@
         <v>4896548</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5389,7 +5315,7 @@
         <v>4895834</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5401,7 +5327,7 @@
         <v>51819428</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5413,7 +5339,7 @@
         <v>1084577987</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5425,7 +5351,7 @@
         <v>4896631</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5437,7 +5363,7 @@
         <v>4896790</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5449,204 +5375,204 @@
         <v>12279558</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="1">
         <v>18614504</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="1">
         <v>1004473364</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>1084576191</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="1">
         <v>55197452</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="1">
         <v>12205870</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="1">
         <v>1084576682</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="1">
         <v>1062084332</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B72" s="1">
         <v>83250080</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B73" s="1">
         <v>12270463</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B74" s="1">
         <v>83250164</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="1">
         <v>4897471</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="1">
         <v>55197709</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B77" s="1">
         <v>1084576446</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B78" s="1">
         <v>1062080728</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B79" s="1">
         <v>4897352</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B80" s="1">
         <v>55197448</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B81" s="1">
@@ -5658,7 +5584,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B82" s="1">
@@ -5670,7 +5596,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B83" s="1">
@@ -5689,7 +5615,7 @@
         <v>1062088131</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5701,7 +5627,7 @@
         <v>1062075262</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6378,14 +6304,14 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B142" s="1">
         <v>83253918</v>
       </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="9" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7011,7 +6937,7 @@
         <v>36381690</v>
       </c>
       <c r="C194" s="1"/>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="9" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9581,11 +9507,11 @@
       <c r="A408" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B408" s="19">
+      <c r="B408" s="1">
         <v>1058729916</v>
       </c>
-      <c r="C408" s="19"/>
-      <c r="D408" s="19" t="s">
+      <c r="C408" s="1"/>
+      <c r="D408" s="1" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10109,10 +10035,10 @@
       <c r="A452" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B452" s="20">
+      <c r="B452" s="10">
         <v>83250108</v>
       </c>
-      <c r="C452" s="20"/>
+      <c r="C452" s="10"/>
       <c r="D452" s="1" t="s">
         <v>552</v>
       </c>
@@ -10121,10 +10047,10 @@
       <c r="A453" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B453" s="21">
+      <c r="B453" s="11">
         <v>55130443</v>
       </c>
-      <c r="C453" s="21"/>
+      <c r="C453" s="11"/>
       <c r="D453" s="1" t="s">
         <v>553</v>
       </c>
@@ -10133,10 +10059,10 @@
       <c r="A454" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B454" s="21">
+      <c r="B454" s="11">
         <v>1002980716</v>
       </c>
-      <c r="C454" s="21"/>
+      <c r="C454" s="11"/>
       <c r="D454" s="1" t="s">
         <v>554</v>
       </c>
@@ -10145,10 +10071,10 @@
       <c r="A455" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B455" s="21">
+      <c r="B455" s="11">
         <v>1004473258</v>
       </c>
-      <c r="C455" s="21"/>
+      <c r="C455" s="11"/>
       <c r="D455" s="1" t="s">
         <v>555</v>
       </c>
@@ -10157,10 +10083,10 @@
       <c r="A456" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B456" s="21">
+      <c r="B456" s="11">
         <v>1062075265</v>
       </c>
-      <c r="C456" s="21"/>
+      <c r="C456" s="11"/>
       <c r="D456" s="1" t="s">
         <v>557</v>
       </c>
@@ -10169,10 +10095,10 @@
       <c r="A457" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B457" s="21">
+      <c r="B457" s="11">
         <v>83250296</v>
       </c>
-      <c r="C457" s="21"/>
+      <c r="C457" s="11"/>
       <c r="D457" s="1" t="s">
         <v>559</v>
       </c>
@@ -10650,7 +10576,7 @@
       </c>
     </row>
     <row r="497" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A497" s="22" t="s">
+      <c r="A497" s="12" t="s">
         <v>603</v>
       </c>
       <c r="B497" s="1">
@@ -11138,7 +11064,7 @@
       <c r="B537" s="1">
         <v>83249953</v>
       </c>
-      <c r="C537" s="17"/>
+      <c r="C537" s="1"/>
       <c r="D537" s="1" t="s">
         <v>650</v>
       </c>
@@ -11150,7 +11076,7 @@
       <c r="B538" s="1">
         <v>55197492</v>
       </c>
-      <c r="C538" s="17"/>
+      <c r="C538" s="1"/>
       <c r="D538" s="1" t="s">
         <v>651</v>
       </c>
@@ -11162,7 +11088,7 @@
       <c r="B539" s="1">
         <v>1084959936</v>
       </c>
-      <c r="C539" s="17"/>
+      <c r="C539" s="1"/>
       <c r="D539" s="1" t="s">
         <v>653</v>
       </c>
@@ -11174,7 +11100,7 @@
       <c r="B540" s="1">
         <v>83249752</v>
       </c>
-      <c r="C540" s="17"/>
+      <c r="C540" s="1"/>
       <c r="D540" s="1" t="s">
         <v>654</v>
       </c>
@@ -11186,7 +11112,7 @@
       <c r="B541" s="1">
         <v>1084576181</v>
       </c>
-      <c r="C541" s="23"/>
+      <c r="C541" s="1"/>
       <c r="D541" s="1" t="s">
         <v>655</v>
       </c>
@@ -11198,7 +11124,7 @@
       <c r="B542" s="1">
         <v>1081415660</v>
       </c>
-      <c r="C542" s="23"/>
+      <c r="C542" s="1"/>
       <c r="D542" s="1" t="s">
         <v>656</v>
       </c>
@@ -11210,7 +11136,7 @@
       <c r="B543" s="1">
         <v>12197614</v>
       </c>
-      <c r="C543" s="17"/>
+      <c r="C543" s="1"/>
       <c r="D543" s="1" t="s">
         <v>657</v>
       </c>
@@ -11222,7 +11148,7 @@
       <c r="B544" s="1">
         <v>1084578846</v>
       </c>
-      <c r="C544" s="17"/>
+      <c r="C544" s="1"/>
       <c r="D544" s="1" t="s">
         <v>658</v>
       </c>
@@ -11234,7 +11160,7 @@
       <c r="B545" s="1">
         <v>1004491936</v>
       </c>
-      <c r="C545" s="17"/>
+      <c r="C545" s="1"/>
       <c r="D545" s="1" t="s">
         <v>660</v>
       </c>
@@ -11246,7 +11172,7 @@
       <c r="B546" s="1">
         <v>1084576433</v>
       </c>
-      <c r="C546" s="17"/>
+      <c r="C546" s="1"/>
       <c r="D546" s="1" t="s">
         <v>661</v>
       </c>
@@ -11330,8 +11256,8 @@
       <c r="B553" s="1">
         <v>55197779</v>
       </c>
-      <c r="C553" s="17"/>
-      <c r="D553" s="17" t="s">
+      <c r="C553" s="1"/>
+      <c r="D553" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -11342,8 +11268,8 @@
       <c r="B554" s="1">
         <v>12271665</v>
       </c>
-      <c r="C554" s="17"/>
-      <c r="D554" s="17" t="s">
+      <c r="C554" s="1"/>
+      <c r="D554" s="1" t="s">
         <v>671</v>
       </c>
     </row>
@@ -11354,8 +11280,8 @@
       <c r="B555" s="1">
         <v>1084576032</v>
       </c>
-      <c r="C555" s="17"/>
-      <c r="D555" s="17" t="s">
+      <c r="C555" s="1"/>
+      <c r="D555" s="1" t="s">
         <v>672</v>
       </c>
     </row>
@@ -11366,8 +11292,8 @@
       <c r="B556" s="2">
         <v>1004473219</v>
       </c>
-      <c r="C556" s="24"/>
-      <c r="D556" s="17" t="s">
+      <c r="C556" s="2"/>
+      <c r="D556" s="1" t="s">
         <v>673</v>
       </c>
     </row>
@@ -11378,8 +11304,8 @@
       <c r="B557" s="1">
         <v>1084866546</v>
       </c>
-      <c r="C557" s="17"/>
-      <c r="D557" s="17" t="s">
+      <c r="C557" s="1"/>
+      <c r="D557" s="1" t="s">
         <v>674</v>
       </c>
     </row>
@@ -11390,8 +11316,8 @@
       <c r="B558" s="2">
         <v>1117539762</v>
       </c>
-      <c r="C558" s="24"/>
-      <c r="D558" s="17" t="s">
+      <c r="C558" s="2"/>
+      <c r="D558" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -11402,8 +11328,8 @@
       <c r="B559" s="2">
         <v>1079409859</v>
       </c>
-      <c r="C559" s="24"/>
-      <c r="D559" s="17" t="s">
+      <c r="C559" s="2"/>
+      <c r="D559" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -11438,8 +11364,8 @@
       <c r="B562" s="2">
         <v>1012408220</v>
       </c>
-      <c r="C562" s="24"/>
-      <c r="D562" s="17" t="s">
+      <c r="C562" s="2"/>
+      <c r="D562" s="1" t="s">
         <v>680</v>
       </c>
     </row>
@@ -11450,8 +11376,8 @@
       <c r="B563" s="2">
         <v>1084578729</v>
       </c>
-      <c r="C563" s="24"/>
-      <c r="D563" s="17" t="s">
+      <c r="C563" s="2"/>
+      <c r="D563" s="1" t="s">
         <v>681</v>
       </c>
     </row>
@@ -11462,8 +11388,8 @@
       <c r="B564" s="1">
         <v>83249790</v>
       </c>
-      <c r="C564" s="17"/>
-      <c r="D564" s="17" t="s">
+      <c r="C564" s="1"/>
+      <c r="D564" s="1" t="s">
         <v>682</v>
       </c>
     </row>
@@ -11474,8 +11400,8 @@
       <c r="B565" s="2">
         <v>76357430</v>
       </c>
-      <c r="C565" s="25"/>
-      <c r="D565" s="26" t="s">
+      <c r="C565" s="2"/>
+      <c r="D565" s="3" t="s">
         <v>683</v>
       </c>
     </row>
@@ -11486,8 +11412,8 @@
       <c r="B566" s="2">
         <v>4723528</v>
       </c>
-      <c r="C566" s="27"/>
-      <c r="D566" s="28" t="s">
+      <c r="C566" s="2"/>
+      <c r="D566" s="1" t="s">
         <v>684</v>
       </c>
     </row>
@@ -11498,8 +11424,8 @@
       <c r="B567" s="2">
         <v>26473356</v>
       </c>
-      <c r="C567" s="24"/>
-      <c r="D567" s="17" t="s">
+      <c r="C567" s="2"/>
+      <c r="D567" s="1" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11510,8 +11436,8 @@
       <c r="B568" s="2">
         <v>6282698</v>
       </c>
-      <c r="C568" s="24"/>
-      <c r="D568" s="29" t="s">
+      <c r="C568" s="2"/>
+      <c r="D568" s="3" t="s">
         <v>686</v>
       </c>
     </row>
@@ -11522,8 +11448,8 @@
       <c r="B569" s="1">
         <v>18494510</v>
       </c>
-      <c r="C569" s="17"/>
-      <c r="D569" s="17" t="s">
+      <c r="C569" s="1"/>
+      <c r="D569" s="1" t="s">
         <v>687</v>
       </c>
     </row>
@@ -12371,10 +12297,10 @@
       <c r="A640" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B640" s="23">
+      <c r="B640" s="1">
         <v>76006726</v>
       </c>
-      <c r="C640" s="23"/>
+      <c r="C640" s="1"/>
       <c r="D640" s="1" t="s">
         <v>761</v>
       </c>
@@ -12455,10 +12381,10 @@
       <c r="A647" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B647" s="23">
+      <c r="B647" s="1">
         <v>1004473197</v>
       </c>
-      <c r="C647" s="23"/>
+      <c r="C647" s="1"/>
       <c r="D647" s="3" t="s">
         <v>768</v>
       </c>
@@ -12518,8 +12444,8 @@
       <c r="B652" s="1">
         <v>83249820</v>
       </c>
-      <c r="C652" s="30"/>
-      <c r="D652" s="26" t="s">
+      <c r="C652" s="1"/>
+      <c r="D652" s="3" t="s">
         <v>775</v>
       </c>
     </row>
@@ -12851,11 +12777,11 @@
       <c r="A680" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B680" s="31">
+      <c r="B680" s="9">
         <v>55164795</v>
       </c>
-      <c r="C680" s="31"/>
-      <c r="D680" s="31" t="s">
+      <c r="C680" s="9"/>
+      <c r="D680" s="9" t="s">
         <v>804</v>
       </c>
     </row>
@@ -13561,10 +13487,10 @@
       <c r="A739" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B739" s="18">
+      <c r="B739" s="9">
         <v>25562329</v>
       </c>
-      <c r="C739" s="18"/>
+      <c r="C739" s="9"/>
       <c r="D739" s="1" t="s">
         <v>869</v>
       </c>
@@ -13573,10 +13499,10 @@
       <c r="A740" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B740" s="18">
+      <c r="B740" s="9">
         <v>1084579278</v>
       </c>
-      <c r="C740" s="18"/>
+      <c r="C740" s="9"/>
       <c r="D740" s="1" t="s">
         <v>870</v>
       </c>
@@ -13621,10 +13547,10 @@
       <c r="A744" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B744" s="31">
+      <c r="B744" s="9">
         <v>1084578135</v>
       </c>
-      <c r="C744" s="31"/>
+      <c r="C744" s="9"/>
       <c r="D744" s="1" t="s">
         <v>875</v>
       </c>
@@ -13681,10 +13607,10 @@
       <c r="A749" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B749" s="18">
+      <c r="B749" s="9">
         <v>83249846</v>
       </c>
-      <c r="C749" s="18"/>
+      <c r="C749" s="9"/>
       <c r="D749" s="1" t="s">
         <v>880</v>
       </c>
@@ -13693,10 +13619,10 @@
       <c r="A750" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B750" s="18">
+      <c r="B750" s="9">
         <v>4897228</v>
       </c>
-      <c r="C750" s="18"/>
+      <c r="C750" s="9"/>
       <c r="D750" s="1" t="s">
         <v>881</v>
       </c>
@@ -13753,10 +13679,10 @@
       <c r="A755" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B755" s="31">
+      <c r="B755" s="9">
         <v>83249726</v>
       </c>
-      <c r="C755" s="31"/>
+      <c r="C755" s="9"/>
       <c r="D755" s="1" t="s">
         <v>887</v>
       </c>
@@ -13777,10 +13703,10 @@
       <c r="A757" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B757" s="23">
+      <c r="B757" s="1">
         <v>1081394243</v>
       </c>
-      <c r="C757" s="23"/>
+      <c r="C757" s="1"/>
       <c r="D757" s="1" t="s">
         <v>889</v>
       </c>
@@ -14025,7 +13951,7 @@
         <v>26473887</v>
       </c>
       <c r="C777" s="1"/>
-      <c r="D777" s="32" t="s">
+      <c r="D777" s="13" t="s">
         <v>909</v>
       </c>
     </row>
@@ -14061,7 +13987,7 @@
         <v>26520163</v>
       </c>
       <c r="C780" s="1"/>
-      <c r="D780" s="32" t="s">
+      <c r="D780" s="13" t="s">
         <v>912</v>
       </c>
     </row>
@@ -14073,7 +13999,7 @@
         <v>1084577319</v>
       </c>
       <c r="C781" s="1"/>
-      <c r="D781" s="32" t="s">
+      <c r="D781" s="13" t="s">
         <v>913</v>
       </c>
     </row>
@@ -14081,11 +14007,11 @@
       <c r="A782" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B782" s="32">
+      <c r="B782" s="13">
         <v>1084576698</v>
       </c>
-      <c r="C782" s="32"/>
-      <c r="D782" s="32" t="s">
+      <c r="C782" s="13"/>
+      <c r="D782" s="13" t="s">
         <v>914</v>
       </c>
     </row>
@@ -14097,7 +14023,7 @@
         <v>83250095</v>
       </c>
       <c r="C783" s="1"/>
-      <c r="D783" s="32" t="s">
+      <c r="D783" s="13" t="s">
         <v>915</v>
       </c>
     </row>
@@ -14593,7 +14519,7 @@
       <c r="A821" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B821" s="33">
+      <c r="B821" s="2">
         <v>76007465</v>
       </c>
       <c r="C821" s="1"/>
@@ -14947,7 +14873,7 @@
       <c r="A848" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B848" s="33">
+      <c r="B848" s="2">
         <v>1084578157</v>
       </c>
       <c r="C848" s="1"/>
@@ -14968,15 +14894,25 @@
       </c>
     </row>
     <row r="850" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A850" s="35" t="s">
-        <v>206</v>
+      <c r="A850" s="5" t="s">
+        <v>995</v>
       </c>
       <c r="B850" s="1">
         <v>1084576464</v>
       </c>
-      <c r="C850" s="35"/>
+      <c r="C850" s="14"/>
       <c r="D850" s="1" t="s">
         <v>993</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A851" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="B851" s="19"/>
+      <c r="C851" s="19"/>
+      <c r="D851" s="20" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -15196,272 +15132,272 @@
   <conditionalFormatting sqref="B394:C396">
     <cfRule type="duplicateValues" dxfId="89" priority="21"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="88" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="87" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="86" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="85" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="duplicateValues" dxfId="84" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="83" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="82" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="duplicateValues" dxfId="81" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="duplicateValues" dxfId="79" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="duplicateValues" dxfId="78" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="77" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="duplicateValues" dxfId="76" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="75" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="74" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="duplicateValues" dxfId="73" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="duplicateValues" dxfId="72" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="88" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="87" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="86" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="85" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="84" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="83" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="82" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="81" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="80" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="79" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="duplicateValues" dxfId="78" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="77" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="76" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="75" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="74" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="duplicateValues" dxfId="73" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="72" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="duplicateValues" dxfId="71" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="duplicateValues" dxfId="70" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="69" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="68" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="duplicateValues" dxfId="67" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="duplicateValues" dxfId="66" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="65" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="duplicateValues" dxfId="64" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="63" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="62" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="61" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="60" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="59" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="duplicateValues" dxfId="58" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="duplicateValues" dxfId="57" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="duplicateValues" dxfId="56" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="55" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="54" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="duplicateValues" dxfId="53" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="duplicateValues" dxfId="52" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="51" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="duplicateValues" dxfId="50" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="49" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="48" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="47" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="46" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="45" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="44" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="43" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="42" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="duplicateValues" dxfId="41" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="duplicateValues" dxfId="40" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="duplicateValues" dxfId="39" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="duplicateValues" dxfId="37" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="duplicateValues" dxfId="35" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="duplicateValues" dxfId="34" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="duplicateValues" dxfId="33" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="duplicateValues" dxfId="32" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:D68">
-    <cfRule type="duplicateValues" dxfId="26" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D76">
-    <cfRule type="duplicateValues" dxfId="25" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="duplicateValues" dxfId="22" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D82">
-    <cfRule type="duplicateValues" dxfId="21" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="COLOCAR INDENTIFICACIÓN" sqref="B452:C452" xr:uid="{1282681F-C28B-44B9-9FB2-A1E58EADDFC0}"/>
